--- a/excel/import_data_siswa.xlsx
+++ b/excel/import_data_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CD5024-7CC4-4379-BCF3-ABC5F8AC2F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7FF48-845E-4B94-960B-2BD345112EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{805F6240-A5D2-4F53-9D10-C969DC030DCC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{008BF9A7-DCCE-4E1F-B0CB-7F0BC3A44C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>Nis</t>
   </si>
   <si>
-    <t xml:space="preserve">Nama </t>
+    <t>Nama</t>
   </si>
   <si>
     <t>Jenis Kelamin</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Pekerti</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>Uji coba</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>coba lagi</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -61,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FFF5E7-AB86-41DE-9D68-36A257A6D12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AF4B81-CD1C-4981-8EB0-ABE2D47C8615}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -404,21 +411,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4545</v>
+        <v>1299</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -429,7 +439,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>666</v>
+        <v>1900</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>

--- a/excel/import_data_siswa.xlsx
+++ b/excel/import_data_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Desktop\bahan sidang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7FF48-845E-4B94-960B-2BD345112EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C525BFC-FDBB-4E64-9CD8-BF2CEA33D28F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{008BF9A7-DCCE-4E1F-B0CB-7F0BC3A44C7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Nis</t>
   </si>
@@ -36,26 +36,141 @@
     <t>Jenis Kelamin</t>
   </si>
   <si>
-    <t>Uji coba</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>coba lagi</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>AFIF AHMAD FAKHRUDDIN</t>
+  </si>
+  <si>
+    <t>EVANKA NAUFAL HILMI</t>
+  </si>
+  <si>
+    <t>FACHRY SALIM AMRULLAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFLY ZAYDAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAUQAN ZAFIR ARRAFI</t>
+  </si>
+  <si>
+    <t>NOVA TULUS ABADI</t>
+  </si>
+  <si>
+    <t>RAKHA HADIMULYA</t>
+  </si>
+  <si>
+    <t>RIMBA DEWANTA PRASAJA PUTRA</t>
+  </si>
+  <si>
+    <t>WISNU MUNADJI HIDAYATULLAH</t>
+  </si>
+  <si>
+    <t>ARNONI NABILLA NUR ALAM</t>
+  </si>
+  <si>
+    <t>FAIRUZ ALIFIA AKSALANSIA HUDAWI</t>
+  </si>
+  <si>
+    <t>LEBAI WICAKSANI NARFIAN PUTRI</t>
+  </si>
+  <si>
+    <t>LUTFI HANIFAH</t>
+  </si>
+  <si>
+    <t>NAYLA RIZKI RACHMANIA</t>
+  </si>
+  <si>
+    <t>RERY AMANDA ALSA RIZKI</t>
+  </si>
+  <si>
+    <t>TITA VIDIA ASHARA</t>
+  </si>
+  <si>
+    <t>ZULFANNY NAJLA AIDA RIADY</t>
+  </si>
+  <si>
+    <t>NAURAJILAN SHABRINA YUMNA</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>14618</t>
+  </si>
+  <si>
+    <t>14628</t>
+  </si>
+  <si>
+    <t>14619</t>
+  </si>
+  <si>
+    <t>14620</t>
+  </si>
+  <si>
+    <t>14621</t>
+  </si>
+  <si>
+    <t>14622</t>
+  </si>
+  <si>
+    <t>14623</t>
+  </si>
+  <si>
+    <t>14625</t>
+  </si>
+  <si>
+    <t>14626</t>
+  </si>
+  <si>
+    <t>14627</t>
+  </si>
+  <si>
+    <t>14629</t>
+  </si>
+  <si>
+    <t>14630</t>
+  </si>
+  <si>
+    <t>14631</t>
+  </si>
+  <si>
+    <t>14633</t>
+  </si>
+  <si>
+    <t>14624</t>
+  </si>
+  <si>
+    <t>14634</t>
+  </si>
+  <si>
+    <t>14635</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,15 +198,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency [0] 2" xfId="1" xr:uid="{91AF0857-5B7D-4CE9-9782-80AC155E7575}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,14 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AF4B81-CD1C-4981-8EB0-ABE2D47C8615}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,26 +592,202 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1299</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1900</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>14940</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
